--- a/output/3_Regression/h19_test/h22table_mape.xlsx
+++ b/output/3_Regression/h19_test/h22table_mape.xlsx
@@ -420,19 +420,19 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.5227962271738648</v>
+        <v>0.02940876130791893</v>
       </c>
       <c r="C2">
-        <v>0.4384052249972912</v>
+        <v>7.793480153826713</v>
       </c>
       <c r="D2">
-        <v>0.3368802044506317</v>
+        <v>5.988681333848852</v>
       </c>
       <c r="E2">
-        <v>1.212318666872096</v>
+        <v>7.503595041642085</v>
       </c>
       <c r="F2">
-        <v>0.203837913095583</v>
+        <v>3.623603551526322</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -440,19 +440,19 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.550559489240892</v>
+        <v>0.05753687231559356</v>
       </c>
       <c r="C3">
-        <v>0.4870830216028734</v>
+        <v>4.660805650343106</v>
       </c>
       <c r="D3">
-        <v>0.3298733135240134</v>
+        <v>3.156495577510918</v>
       </c>
       <c r="E3">
-        <v>1.155934093558577</v>
+        <v>4.045445460433733</v>
       </c>
       <c r="F3">
-        <v>0.2267502722834958</v>
+        <v>2.169730627846463</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -460,19 +460,19 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.5744410039276836</v>
+        <v>0.08403633157959466</v>
       </c>
       <c r="C4">
-        <v>0.5262293590696042</v>
+        <v>3.597107532399298</v>
       </c>
       <c r="D4">
-        <v>0.3210433066262107</v>
+        <v>2.194532244520343</v>
       </c>
       <c r="E4">
-        <v>1.110017223458941</v>
+        <v>2.830300160523423</v>
       </c>
       <c r="F4">
-        <v>0.2361392339085667</v>
+        <v>1.614159685976686</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -480,19 +480,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.594291131522129</v>
+        <v>0.109211965966083</v>
       </c>
       <c r="C5">
-        <v>0.5595528347785781</v>
+        <v>3.044879600741271</v>
       </c>
       <c r="D5">
-        <v>0.3069244386671188</v>
+        <v>1.670169292657212</v>
       </c>
       <c r="E5">
-        <v>1.073729230068662</v>
+        <v>2.116477050860046</v>
       </c>
       <c r="F5">
-        <v>0.2471491470085456</v>
+        <v>1.344894260726452</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -500,19 +500,19 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.6105581360788979</v>
+        <v>0.1328008801422743</v>
       </c>
       <c r="C6">
-        <v>0.589216242625331</v>
+        <v>2.708948694160159</v>
       </c>
       <c r="D6">
-        <v>0.290427918524638</v>
+        <v>1.335255673077651</v>
       </c>
       <c r="E6">
-        <v>1.045423938222169</v>
+        <v>1.645794862559297</v>
       </c>
       <c r="F6">
-        <v>0.2560682606097362</v>
+        <v>1.177285570241315</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -520,19 +520,19 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.6241182670609503</v>
+        <v>0.1545886047826114</v>
       </c>
       <c r="C7">
-        <v>0.6160115213019383</v>
+        <v>2.487014121805381</v>
       </c>
       <c r="D7">
-        <v>0.2699646203872833</v>
+        <v>1.089924133029182</v>
       </c>
       <c r="E7">
-        <v>1.02288145359574</v>
+        <v>1.326386597247653</v>
       </c>
       <c r="F7">
-        <v>0.2638365194613942</v>
+        <v>1.065183242614789</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -540,19 +540,19 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.6358155504531874</v>
+        <v>0.17483832122601</v>
       </c>
       <c r="C8">
-        <v>0.6401405218972902</v>
+        <v>2.327929571980853</v>
       </c>
       <c r="D8">
-        <v>0.2510857327332603</v>
+        <v>0.9130962379944779</v>
       </c>
       <c r="E8">
-        <v>1.004085210560511</v>
+        <v>1.130117229405729</v>
       </c>
       <c r="F8">
-        <v>0.2742383293093144</v>
+        <v>0.9972927735891837</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -560,19 +560,19 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.6463273036198586</v>
+        <v>0.1938497196185314</v>
       </c>
       <c r="C9">
-        <v>0.6614116644658233</v>
+        <v>2.205256827392655</v>
       </c>
       <c r="D9">
-        <v>0.2381733487779468</v>
+        <v>0.7941096773969568</v>
       </c>
       <c r="E9">
-        <v>0.9872741676267438</v>
+        <v>1.00598191824985</v>
       </c>
       <c r="F9">
-        <v>0.2795540960935302</v>
+        <v>0.9320799921690751</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -580,19 +580,19 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.6561618388260688</v>
+        <v>0.2119832551451189</v>
       </c>
       <c r="C10">
-        <v>0.6793891983057982</v>
+        <v>2.102945656409154</v>
       </c>
       <c r="D10">
-        <v>0.228330010299812</v>
+        <v>0.7067607265250057</v>
       </c>
       <c r="E10">
-        <v>0.9709125616910876</v>
+        <v>0.9071044209099901</v>
       </c>
       <c r="F10">
-        <v>0.2791515902693743</v>
+        <v>0.8640711770228305</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -600,19 +600,19 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.6655358622177262</v>
+        <v>0.2297072561836355</v>
       </c>
       <c r="C11">
-        <v>0.6937380769794946</v>
+        <v>2.009982518126076</v>
       </c>
       <c r="D11">
-        <v>0.2208161404928149</v>
+        <v>0.6397754380775444</v>
       </c>
       <c r="E11">
-        <v>0.9539521531609919</v>
+        <v>0.8182072839008077</v>
       </c>
       <c r="F11">
-        <v>0.2715803069907605</v>
+        <v>0.7868555690289381</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -620,19 +620,19 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.6744189972048592</v>
+        <v>0.247214082041317</v>
       </c>
       <c r="C12">
-        <v>0.7043524594388628</v>
+        <v>1.921527590382745</v>
       </c>
       <c r="D12">
-        <v>0.2105093746376641</v>
+        <v>0.5742857371758769</v>
       </c>
       <c r="E12">
-        <v>0.9358436688663523</v>
+        <v>0.7207141843841769</v>
       </c>
       <c r="F12">
-        <v>0.2545615381156979</v>
+        <v>0.694463421522332</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -640,19 +640,19 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.6826958616223834</v>
+        <v>0.2642483512599353</v>
       </c>
       <c r="C13">
-        <v>0.7111749773441505</v>
+        <v>1.837348129542924</v>
       </c>
       <c r="D13">
-        <v>0.1930943912175148</v>
+        <v>0.4988668468815448</v>
       </c>
       <c r="E13">
-        <v>0.9162547367824345</v>
+        <v>0.6201134929854261</v>
       </c>
       <c r="F13">
-        <v>0.2308983813144369</v>
+        <v>0.5965349211341439</v>
       </c>
     </row>
   </sheetData>

--- a/output/3_Regression/h19_test/h22table_mape.xlsx
+++ b/output/3_Regression/h19_test/h22table_mape.xlsx
@@ -432,7 +432,7 @@
         <v>7.503595041642085</v>
       </c>
       <c r="F2">
-        <v>3.623603551526322</v>
+        <v>3.623603551526316</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -440,19 +440,19 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.05753687231559356</v>
+        <v>0.03633920611864623</v>
       </c>
       <c r="C3">
-        <v>4.660805650343106</v>
+        <v>7.379582776685563</v>
       </c>
       <c r="D3">
-        <v>3.156495577510918</v>
+        <v>4.997766941165837</v>
       </c>
       <c r="E3">
-        <v>4.045445460433733</v>
+        <v>6.405265931146449</v>
       </c>
       <c r="F3">
-        <v>2.169730627846463</v>
+        <v>3.435394644727181</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -460,19 +460,19 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.08403633157959466</v>
+        <v>0.03959635710382003</v>
       </c>
       <c r="C4">
-        <v>3.597107532399298</v>
+        <v>7.634230606810089</v>
       </c>
       <c r="D4">
-        <v>2.194532244520343</v>
+        <v>4.65751025729667</v>
       </c>
       <c r="E4">
-        <v>2.830300160523423</v>
+        <v>6.006816287061422</v>
       </c>
       <c r="F4">
-        <v>1.614159685976686</v>
+        <v>3.425771169743909</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -480,19 +480,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.109211965966083</v>
+        <v>0.0408376782828213</v>
       </c>
       <c r="C5">
-        <v>3.044879600741271</v>
+        <v>8.142903840516823</v>
       </c>
       <c r="D5">
-        <v>1.670169292657212</v>
+        <v>4.466524043900051</v>
       </c>
       <c r="E5">
-        <v>2.116477050860046</v>
+        <v>5.660082290813185</v>
       </c>
       <c r="F5">
-        <v>1.344894260726452</v>
+        <v>3.596642914252624</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -500,19 +500,19 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.1328008801422743</v>
+        <v>0.04132623353343134</v>
       </c>
       <c r="C6">
-        <v>2.708948694160159</v>
+        <v>8.705142958496547</v>
       </c>
       <c r="D6">
-        <v>1.335255673077651</v>
+        <v>4.290812722050494</v>
       </c>
       <c r="E6">
-        <v>1.645794862559297</v>
+        <v>5.288723108644751</v>
       </c>
       <c r="F6">
-        <v>1.177285570241315</v>
+        <v>3.783179509460236</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -520,19 +520,19 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.1545886047826114</v>
+        <v>0.04160958631915355</v>
       </c>
       <c r="C7">
-        <v>2.487014121805381</v>
+        <v>9.239794892831474</v>
       </c>
       <c r="D7">
-        <v>1.089924133029182</v>
+        <v>4.049303680924124</v>
       </c>
       <c r="E7">
-        <v>1.326386597247653</v>
+        <v>4.927812833757613</v>
       </c>
       <c r="F7">
-        <v>1.065183242614789</v>
+        <v>3.957385926661809</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -540,19 +540,19 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.17483832122601</v>
+        <v>0.04164666719908244</v>
       </c>
       <c r="C8">
-        <v>2.327929571980853</v>
+        <v>9.772962056048593</v>
       </c>
       <c r="D8">
-        <v>0.9130962379944779</v>
+        <v>3.833301056374977</v>
       </c>
       <c r="E8">
-        <v>1.130117229405729</v>
+        <v>4.744384424169252</v>
       </c>
       <c r="F8">
-        <v>0.9972927735891837</v>
+        <v>4.186769459165889</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -560,19 +560,19 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.1938497196185314</v>
+        <v>0.04082307879796399</v>
       </c>
       <c r="C9">
-        <v>2.205256827392655</v>
+        <v>10.47173388838665</v>
       </c>
       <c r="D9">
-        <v>0.7941096773969568</v>
+        <v>3.770855673860639</v>
       </c>
       <c r="E9">
-        <v>1.00598191824985</v>
+        <v>4.776937911987463</v>
       </c>
       <c r="F9">
-        <v>0.9320799921690751</v>
+        <v>4.426012208393982</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -580,19 +580,19 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.2119832551451189</v>
+        <v>0.03810249031410147</v>
       </c>
       <c r="C10">
-        <v>2.102945656409154</v>
+        <v>11.69974093462121</v>
       </c>
       <c r="D10">
-        <v>0.7067607265250057</v>
+        <v>3.932064234710979</v>
       </c>
       <c r="E10">
-        <v>0.9071044209099901</v>
+        <v>5.046676642808888</v>
       </c>
       <c r="F10">
-        <v>0.8640711770228305</v>
+        <v>4.807261133653104</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -600,19 +600,19 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.2297072561836355</v>
+        <v>0.03627685378365981</v>
       </c>
       <c r="C11">
-        <v>2.009982518126076</v>
+        <v>12.7273321983557</v>
       </c>
       <c r="D11">
-        <v>0.6397754380775444</v>
+        <v>4.05109719081184</v>
       </c>
       <c r="E11">
-        <v>0.8182072839008077</v>
+        <v>5.180938548176328</v>
       </c>
       <c r="F11">
-        <v>0.7868555690289381</v>
+        <v>4.982417572713105</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -620,19 +620,19 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.247214082041317</v>
+        <v>0.03995077175765827</v>
       </c>
       <c r="C12">
-        <v>1.921527590382745</v>
+        <v>11.89035051075014</v>
       </c>
       <c r="D12">
-        <v>0.5742857371758769</v>
+        <v>3.553661546429089</v>
       </c>
       <c r="E12">
-        <v>0.7207141843841769</v>
+        <v>4.459756036440942</v>
       </c>
       <c r="F12">
-        <v>0.694463421522332</v>
+        <v>4.297317165844374</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -640,19 +640,19 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.2642483512599353</v>
+        <v>0.04966997122798943</v>
       </c>
       <c r="C13">
-        <v>1.837348129542924</v>
+        <v>9.774843872843869</v>
       </c>
       <c r="D13">
-        <v>0.4988668468815448</v>
+        <v>2.654012847754712</v>
       </c>
       <c r="E13">
-        <v>0.6201134929854261</v>
+        <v>3.299055023875263</v>
       </c>
       <c r="F13">
-        <v>0.5965349211341439</v>
+        <v>3.173615073282857</v>
       </c>
     </row>
   </sheetData>

--- a/output/3_Regression/h19_test/h22table_mape.xlsx
+++ b/output/3_Regression/h19_test/h22table_mape.xlsx
@@ -432,7 +432,7 @@
         <v>7.503595041642085</v>
       </c>
       <c r="F2">
-        <v>3.623603551526316</v>
+        <v>3.623603551526322</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -452,7 +452,7 @@
         <v>6.405265931146449</v>
       </c>
       <c r="F3">
-        <v>3.435394644727181</v>
+        <v>3.435394644727186</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -472,7 +472,7 @@
         <v>6.006816287061422</v>
       </c>
       <c r="F4">
-        <v>3.425771169743909</v>
+        <v>3.42577116974391</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -552,7 +552,7 @@
         <v>4.744384424169252</v>
       </c>
       <c r="F8">
-        <v>4.186769459165889</v>
+        <v>4.186769459165888</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -572,7 +572,7 @@
         <v>4.776937911987463</v>
       </c>
       <c r="F9">
-        <v>4.426012208393982</v>
+        <v>4.42601220839398</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -612,7 +612,7 @@
         <v>5.180938548176328</v>
       </c>
       <c r="F11">
-        <v>4.982417572713105</v>
+        <v>4.982417572713103</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -632,7 +632,7 @@
         <v>4.459756036440942</v>
       </c>
       <c r="F12">
-        <v>4.297317165844374</v>
+        <v>4.297317165844373</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -652,7 +652,7 @@
         <v>3.299055023875263</v>
       </c>
       <c r="F13">
-        <v>3.173615073282857</v>
+        <v>3.173615073282856</v>
       </c>
     </row>
   </sheetData>

--- a/output/3_Regression/h19_test/h22table_mape.xlsx
+++ b/output/3_Regression/h19_test/h22table_mape.xlsx
@@ -432,7 +432,7 @@
         <v>7.503595041642085</v>
       </c>
       <c r="F2">
-        <v>3.623603551526322</v>
+        <v>3.623603551526316</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -452,7 +452,7 @@
         <v>6.405265931146449</v>
       </c>
       <c r="F3">
-        <v>3.435394644727186</v>
+        <v>3.435394644727181</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -472,7 +472,7 @@
         <v>6.006816287061422</v>
       </c>
       <c r="F4">
-        <v>3.42577116974391</v>
+        <v>3.425771169743909</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -572,7 +572,7 @@
         <v>4.776937911987463</v>
       </c>
       <c r="F9">
-        <v>4.42601220839398</v>
+        <v>4.426012208393981</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -612,7 +612,7 @@
         <v>5.180938548176328</v>
       </c>
       <c r="F11">
-        <v>4.982417572713103</v>
+        <v>4.982417572713105</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -632,7 +632,7 @@
         <v>4.459756036440942</v>
       </c>
       <c r="F12">
-        <v>4.297317165844373</v>
+        <v>4.297317165844374</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -652,7 +652,7 @@
         <v>3.299055023875263</v>
       </c>
       <c r="F13">
-        <v>3.173615073282856</v>
+        <v>3.173615073282857</v>
       </c>
     </row>
   </sheetData>
